--- a/Data Entry/Calorimetry/Gonads/standards.xlsx
+++ b/Data Entry/Calorimetry/Gonads/standards.xlsx
@@ -1,114 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8e117de8b1cf67b/Documents/GitHub/triploid-walleye-labwork/Data Entry/Calorimetry/Gonads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CBD56C-4482-4F97-A0F7-3643A332920F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A1E1A7-6C69-4DE3-BFAF-5B0783E3FB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{65F2844B-1870-4406-B4E2-EAE5A42F09AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="standards" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>BA012220-001</t>
-  </si>
-  <si>
-    <t>BA012220-002</t>
-  </si>
-  <si>
-    <t>BA012320-001</t>
-  </si>
-  <si>
-    <t>BA012320-002</t>
-  </si>
-  <si>
-    <t>BA012420-001</t>
-  </si>
-  <si>
-    <t>BA012420-002</t>
-  </si>
-  <si>
-    <t>BA012820-001</t>
-  </si>
-  <si>
-    <t>BA012820-002</t>
-  </si>
-  <si>
-    <t>BA012920-001</t>
-  </si>
-  <si>
-    <t>BA012920-002</t>
-  </si>
-  <si>
-    <t>BA013020-001</t>
-  </si>
-  <si>
-    <t>BA013020-002</t>
-  </si>
-  <si>
-    <t>BA013120-001</t>
-  </si>
-  <si>
-    <t>BA013120-002</t>
-  </si>
-  <si>
-    <t>BA020720-001</t>
-  </si>
-  <si>
-    <t>BA020720-002</t>
-  </si>
-  <si>
-    <t>BA021420-001</t>
-  </si>
-  <si>
-    <t>BA021420-002</t>
-  </si>
-  <si>
-    <t>BA021720-001</t>
-  </si>
-  <si>
-    <t>BA021820-001</t>
-  </si>
-  <si>
-    <t>BA021820-002</t>
-  </si>
-  <si>
-    <t>BA021920-001</t>
-  </si>
-  <si>
-    <t>BA021920-002</t>
-  </si>
-  <si>
-    <t>BA022020-001</t>
-  </si>
-  <si>
-    <t>BA022020-002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>corrected_gross_heat</t>
   </si>
   <si>
     <t>BA060420001</t>
@@ -147,17 +64,176 @@
     <t>BA061120002</t>
   </si>
   <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>corrected_gross_heat</t>
+    <t>BA012220001</t>
+  </si>
+  <si>
+    <t>BA012220002</t>
+  </si>
+  <si>
+    <t>BA012320001</t>
+  </si>
+  <si>
+    <t>BA012320002</t>
+  </si>
+  <si>
+    <t>BA012420001</t>
+  </si>
+  <si>
+    <t>BA012420002</t>
+  </si>
+  <si>
+    <t>BA012820001</t>
+  </si>
+  <si>
+    <t>BA012820002</t>
+  </si>
+  <si>
+    <t>BA012920001</t>
+  </si>
+  <si>
+    <t>BA012920002</t>
+  </si>
+  <si>
+    <t>BA013020001</t>
+  </si>
+  <si>
+    <t>BA013020002</t>
+  </si>
+  <si>
+    <t>BA013120001</t>
+  </si>
+  <si>
+    <t>BA013120002</t>
+  </si>
+  <si>
+    <t>BA020720001</t>
+  </si>
+  <si>
+    <t>BA020720002</t>
+  </si>
+  <si>
+    <t>BA021420001</t>
+  </si>
+  <si>
+    <t>BA021420002</t>
+  </si>
+  <si>
+    <t>BA021720001</t>
+  </si>
+  <si>
+    <t>BA021820001</t>
+  </si>
+  <si>
+    <t>BA021820002</t>
+  </si>
+  <si>
+    <t>BA021920001</t>
+  </si>
+  <si>
+    <t>BA021920002</t>
+  </si>
+  <si>
+    <t>BA022020001</t>
+  </si>
+  <si>
+    <t>BA022020002</t>
+  </si>
+  <si>
+    <t>BA072120001</t>
+  </si>
+  <si>
+    <t>BA072120002</t>
+  </si>
+  <si>
+    <t>BA080320001</t>
+  </si>
+  <si>
+    <t>BA080320002</t>
+  </si>
+  <si>
+    <t>BA080420001</t>
+  </si>
+  <si>
+    <t>BA080420002</t>
+  </si>
+  <si>
+    <t>BA080520001</t>
+  </si>
+  <si>
+    <t>BA080520002</t>
+  </si>
+  <si>
+    <t>BA080620001</t>
+  </si>
+  <si>
+    <t>BA080620002</t>
+  </si>
+  <si>
+    <t>BA092120001</t>
+  </si>
+  <si>
+    <t>BA092120002</t>
+  </si>
+  <si>
+    <t>BA092220001</t>
+  </si>
+  <si>
+    <t>BA092220002</t>
+  </si>
+  <si>
+    <t>BA092320001</t>
+  </si>
+  <si>
+    <t>BA092320002</t>
+  </si>
+  <si>
+    <t>BA092420001</t>
+  </si>
+  <si>
+    <t>BA092420002</t>
+  </si>
+  <si>
+    <t>BA092520001</t>
+  </si>
+  <si>
+    <t>BA092520002</t>
+  </si>
+  <si>
+    <t>BA092820001</t>
+  </si>
+  <si>
+    <t>BA092820002</t>
+  </si>
+  <si>
+    <t>BA092920001</t>
+  </si>
+  <si>
+    <t>BA092920002</t>
+  </si>
+  <si>
+    <t>BA093020001</t>
+  </si>
+  <si>
+    <t>BA093020002</t>
+  </si>
+  <si>
+    <t>BA100520001</t>
+  </si>
+  <si>
+    <t>BA100520002</t>
+  </si>
+  <si>
+    <t>BA100620001</t>
+  </si>
+  <si>
+    <t>BA100620002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +241,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,15 +558,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,29 +1066,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F6D07-2290-4AA8-89FB-C18264F5A31B}">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>26.136099999999999</v>
@@ -531,7 +1097,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>26.1645</v>
@@ -539,7 +1105,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>26.1861</v>
@@ -547,7 +1113,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>26.230599999999999</v>
@@ -555,7 +1121,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>26.184999999999999</v>
@@ -563,7 +1129,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>26.2027</v>
@@ -571,7 +1137,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>26.2883</v>
@@ -579,7 +1145,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>26.206900000000001</v>
@@ -587,7 +1153,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>26.172999999999998</v>
@@ -595,7 +1161,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>26.1784</v>
@@ -603,7 +1169,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>26.3309</v>
@@ -611,7 +1177,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>26.276</v>
@@ -619,7 +1185,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>26.253900000000002</v>
@@ -627,7 +1193,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>26.101400000000002</v>
@@ -635,7 +1201,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>26.248000000000001</v>
@@ -643,7 +1209,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>26.236000000000001</v>
@@ -651,7 +1217,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>26.214700000000001</v>
@@ -659,7 +1225,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>26.192699999999999</v>
@@ -667,7 +1233,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>26.2242</v>
@@ -675,7 +1241,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>26.263100000000001</v>
@@ -683,7 +1249,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>26.153500000000001</v>
@@ -691,7 +1257,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>26.068999999999999</v>
@@ -699,7 +1265,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>26.198799999999999</v>
@@ -707,7 +1273,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>26.290299999999998</v>
@@ -715,7 +1281,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>26.0565</v>
@@ -723,7 +1289,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>26.2805</v>
@@ -731,7 +1297,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>26.438500000000001</v>
@@ -739,7 +1305,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>26.652899999999999</v>
@@ -747,7 +1313,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>26.5184</v>
@@ -755,7 +1321,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>26.236499999999999</v>
@@ -763,7 +1329,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>26.3109</v>
@@ -771,7 +1337,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>26.174099999999999</v>
@@ -779,7 +1345,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>26.127500000000001</v>
@@ -787,7 +1353,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>26.2148</v>
@@ -795,7 +1361,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>26.303699999999999</v>
@@ -803,7 +1369,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>26.299800000000001</v>
@@ -811,10 +1377,250 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>26.246600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>26.248799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>26.0959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>26.572199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>26.0779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>32.065100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>26.218599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>26.079699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>26.2592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>26.299399999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>26.206399999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>26.473700000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>26.384599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>26.2972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>26.415400000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>26.428100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>26.344200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>26.767299999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>26.461400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>26.307200000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>26.520499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>26.354700000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>26.345199999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>26.383600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>26.467700000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>26.332100000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>26.578499999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>26.486799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>26.472000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>26.6404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>25.9222</v>
       </c>
     </row>
   </sheetData>
